--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -173,19 +173,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03017950057983398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1503939628601074</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2903642654418945</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.459742546081543</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.924259424209595</c:v>
+                  <c:v>0.0321640968322754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.148506164550781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316509485244751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57116007804871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.00280213356018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,19 +241,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.01325869560241699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0617070198059082</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.105018138885498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4905421733856201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8026189804077148</c:v>
+                  <c:v>0.0351145267486572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.196241617202759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.393628597259521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99615049362183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0259964466095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,19 +309,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.04247426986694336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2342362403869629</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4378647804260254</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.407325506210327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.859415054321289</c:v>
+                  <c:v>0.0471169948577881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.230965375900269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.460096597671509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27331709861755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.49216055870056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,19 +377,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.04341244697570801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2190501689910889</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4279944896697998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.252917766571045</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.248982429504395</c:v>
+                  <c:v>0.0405607223510742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.195904731750488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.486015558242798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.17381286621094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.33821558952332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,19 +535,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03358674049377441</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1435809135437012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3142516613006592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.544291019439697</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.083335876464844</c:v>
+                  <c:v>0.0369117259979248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.171900510787964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.332729578018188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.70507907867432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.37476444244385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,19 +603,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.01269960403442383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05422186851501465</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1100034713745117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5374431610107422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.045670032501221</c:v>
+                  <c:v>0.0184605121612549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.064333438873291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11059308052063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.590332984924316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28019189834595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,19 +671,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.05923247337341309</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2637917995452881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5292220115661621</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.495035409927368</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.866108179092407</c:v>
+                  <c:v>0.0472843647003174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.228621006011963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.467973470687866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.34762787818909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.75435972213745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,19 +739,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.05355453491210938</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2399210929870605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4773609638214111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.366118192672729</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.249821424484253</c:v>
+                  <c:v>0.0516266822814941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.208109855651855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43260383605957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.41428303718567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.92566990852356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,16 +1218,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.03017950057983398</v>
+        <v>0.0321640968322754</v>
       </c>
       <c r="C2">
-        <v>0.01325869560241699</v>
+        <v>0.0351145267486572</v>
       </c>
       <c r="D2">
-        <v>0.04247426986694336</v>
+        <v>0.0471169948577881</v>
       </c>
       <c r="E2">
-        <v>0.04341244697570801</v>
+        <v>0.0405607223510742</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1503939628601074</v>
+        <v>0.148506164550781</v>
       </c>
       <c r="C3">
-        <v>0.0617070198059082</v>
+        <v>0.196241617202759</v>
       </c>
       <c r="D3">
-        <v>0.2342362403869629</v>
+        <v>0.230965375900269</v>
       </c>
       <c r="E3">
-        <v>0.2190501689910889</v>
+        <v>0.195904731750488</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2903642654418945</v>
+        <v>0.316509485244751</v>
       </c>
       <c r="C4">
-        <v>0.105018138885498</v>
+        <v>0.393628597259521</v>
       </c>
       <c r="D4">
-        <v>0.4378647804260254</v>
+        <v>0.460096597671509</v>
       </c>
       <c r="E4">
-        <v>0.4279944896697998</v>
+        <v>0.486015558242798</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.459742546081543</v>
+        <v>1.57116007804871</v>
       </c>
       <c r="C5">
-        <v>0.4905421733856201</v>
+        <v>1.99615049362183</v>
       </c>
       <c r="D5">
-        <v>2.407325506210327</v>
+        <v>2.27331709861755</v>
       </c>
       <c r="E5">
-        <v>2.252917766571045</v>
+        <v>2.17381286621094</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.924259424209595</v>
+        <v>3.00280213356018</v>
       </c>
       <c r="C6">
-        <v>0.8026189804077148</v>
+        <v>4.0259964466095</v>
       </c>
       <c r="D6">
-        <v>4.859415054321289</v>
+        <v>4.49216055870056</v>
       </c>
       <c r="E6">
-        <v>4.248982429504395</v>
+        <v>4.33821558952332</v>
       </c>
     </row>
   </sheetData>
@@ -1331,16 +1331,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.03358674049377441</v>
+        <v>0.0369117259979248</v>
       </c>
       <c r="C2">
-        <v>0.01269960403442383</v>
+        <v>0.0184605121612549</v>
       </c>
       <c r="D2">
-        <v>0.05923247337341309</v>
+        <v>0.0472843647003174</v>
       </c>
       <c r="E2">
-        <v>0.05355453491210938</v>
+        <v>0.0516266822814941</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1348,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1435809135437012</v>
+        <v>0.171900510787964</v>
       </c>
       <c r="C3">
-        <v>0.05422186851501465</v>
+        <v>0.064333438873291</v>
       </c>
       <c r="D3">
-        <v>0.2637917995452881</v>
+        <v>0.228621006011963</v>
       </c>
       <c r="E3">
-        <v>0.2399210929870605</v>
+        <v>0.208109855651855</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1365,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3142516613006592</v>
+        <v>0.332729578018188</v>
       </c>
       <c r="C4">
-        <v>0.1100034713745117</v>
+        <v>0.11059308052063</v>
       </c>
       <c r="D4">
-        <v>0.5292220115661621</v>
+        <v>0.467973470687866</v>
       </c>
       <c r="E4">
-        <v>0.4773609638214111</v>
+        <v>0.43260383605957</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1382,16 +1382,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.544291019439697</v>
+        <v>1.70507907867432</v>
       </c>
       <c r="C5">
-        <v>0.5374431610107422</v>
+        <v>0.590332984924316</v>
       </c>
       <c r="D5">
-        <v>2.495035409927368</v>
+        <v>2.34762787818909</v>
       </c>
       <c r="E5">
-        <v>2.366118192672729</v>
+        <v>2.41428303718567</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1399,16 +1399,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.083335876464844</v>
+        <v>3.37476444244385</v>
       </c>
       <c r="C6">
-        <v>1.045670032501221</v>
+        <v>1.28019189834595</v>
       </c>
       <c r="D6">
-        <v>5.866108179092407</v>
+        <v>4.75435972213745</v>
       </c>
       <c r="E6">
-        <v>5.249821424484253</v>
+        <v>4.92566990852356</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>credis_single_bench</t>
   </si>
@@ -29,19 +29,7 @@
     <t>redispy_single_bench</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>50000</t>
-  </si>
-  <si>
-    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -149,19 +137,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -173,19 +149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0321640968322754</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.148506164550781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.316509485244751</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.57116007804871</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.00280213356018</c:v>
+                  <c:v>1.433637857437134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -217,19 +181,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,19 +193,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0351145267486572</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.196241617202759</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.393628597259521</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.99615049362183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0259964466095</c:v>
+                  <c:v>2.065462112426758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,19 +225,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,19 +237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0471169948577881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.230965375900269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.460096597671509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.27331709861755</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.49216055870056</c:v>
+                  <c:v>2.622850656509399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,19 +269,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,19 +281,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0405607223510742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.195904731750488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.486015558242798</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.17381286621094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.33821558952332</c:v>
+                  <c:v>2.313718557357788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,19 +403,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,19 +415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0369117259979248</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.171900510787964</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.332729578018188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.70507907867432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.37476444244385</c:v>
+                  <c:v>1.677282810211182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,19 +447,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,19 +459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0184605121612549</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.064333438873291</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11059308052063</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.590332984924316</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.28019189834595</c:v>
+                  <c:v>2.360481977462769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,19 +491,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,19 +503,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0472843647003174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.228621006011963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.467973470687866</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.34762787818909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.75435972213745</c:v>
+                  <c:v>2.721301794052124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,19 +535,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,19 +547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0516266822814941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.208109855651855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43260383605957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.41428303718567</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.92566990852356</c:v>
+                  <c:v>2.616088628768921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,84 +1014,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0321640968322754</v>
+        <v>1.433637857437134</v>
       </c>
       <c r="C2">
-        <v>0.0351145267486572</v>
+        <v>2.065462112426758</v>
       </c>
       <c r="D2">
-        <v>0.0471169948577881</v>
+        <v>2.622850656509399</v>
       </c>
       <c r="E2">
-        <v>0.0405607223510742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.148506164550781</v>
-      </c>
-      <c r="C3">
-        <v>0.196241617202759</v>
-      </c>
-      <c r="D3">
-        <v>0.230965375900269</v>
-      </c>
-      <c r="E3">
-        <v>0.195904731750488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.316509485244751</v>
-      </c>
-      <c r="C4">
-        <v>0.393628597259521</v>
-      </c>
-      <c r="D4">
-        <v>0.460096597671509</v>
-      </c>
-      <c r="E4">
-        <v>0.486015558242798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1.57116007804871</v>
-      </c>
-      <c r="C5">
-        <v>1.99615049362183</v>
-      </c>
-      <c r="D5">
-        <v>2.27331709861755</v>
-      </c>
-      <c r="E5">
-        <v>2.17381286621094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3.00280213356018</v>
-      </c>
-      <c r="C6">
-        <v>4.0259964466095</v>
-      </c>
-      <c r="D6">
-        <v>4.49216055870056</v>
-      </c>
-      <c r="E6">
-        <v>4.33821558952332</v>
+        <v>2.313718557357788</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,84 +1059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0369117259979248</v>
+        <v>1.677282810211182</v>
       </c>
       <c r="C2">
-        <v>0.0184605121612549</v>
+        <v>2.360481977462769</v>
       </c>
       <c r="D2">
-        <v>0.0472843647003174</v>
+        <v>2.721301794052124</v>
       </c>
       <c r="E2">
-        <v>0.0516266822814941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.171900510787964</v>
-      </c>
-      <c r="C3">
-        <v>0.064333438873291</v>
-      </c>
-      <c r="D3">
-        <v>0.228621006011963</v>
-      </c>
-      <c r="E3">
-        <v>0.208109855651855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.332729578018188</v>
-      </c>
-      <c r="C4">
-        <v>0.11059308052063</v>
-      </c>
-      <c r="D4">
-        <v>0.467973470687866</v>
-      </c>
-      <c r="E4">
-        <v>0.43260383605957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1.70507907867432</v>
-      </c>
-      <c r="C5">
-        <v>0.590332984924316</v>
-      </c>
-      <c r="D5">
-        <v>2.34762787818909</v>
-      </c>
-      <c r="E5">
-        <v>2.41428303718567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3.37476444244385</v>
-      </c>
-      <c r="C6">
-        <v>1.28019189834595</v>
-      </c>
-      <c r="D6">
-        <v>4.75435972213745</v>
-      </c>
-      <c r="E6">
-        <v>4.92566990852356</v>
+        <v>2.616088628768921</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -149,7 +149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.433637857437134</c:v>
+                  <c:v>1.5411274433136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -193,7 +193,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.065462112426758</c:v>
+                  <c:v>1.91317391395569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,7 +237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.622850656509399</c:v>
+                  <c:v>2.41217255592346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,7 +281,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.313718557357788</c:v>
+                  <c:v>2.60910797119141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,7 +415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.677282810211182</c:v>
+                  <c:v>1.61087608337402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,7 +459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.360481977462769</c:v>
+                  <c:v>2.00753593444824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +503,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.721301794052124</c:v>
+                  <c:v>2.65451908111572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.616088628768921</c:v>
+                  <c:v>2.80986976623535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,16 +1014,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.433637857437134</v>
+        <v>1.5411274433136</v>
       </c>
       <c r="C2">
-        <v>2.065462112426758</v>
+        <v>1.91317391395569</v>
       </c>
       <c r="D2">
-        <v>2.622850656509399</v>
+        <v>2.41217255592346</v>
       </c>
       <c r="E2">
-        <v>2.313718557357788</v>
+        <v>2.60910797119141</v>
       </c>
     </row>
   </sheetData>
@@ -1059,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.677282810211182</v>
+        <v>1.61087608337402</v>
       </c>
       <c r="C2">
-        <v>2.360481977462769</v>
+        <v>2.00753593444824</v>
       </c>
       <c r="D2">
-        <v>2.721301794052124</v>
+        <v>2.65451908111572</v>
       </c>
       <c r="E2">
-        <v>2.616088628768921</v>
+        <v>2.80986976623535</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -149,7 +149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5411274433136</c:v>
+                  <c:v>2.362808704376221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -193,7 +193,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.91317391395569</c:v>
+                  <c:v>1.781286716461182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,7 +237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.41217255592346</c:v>
+                  <c:v>3.493072271347046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,7 +281,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.60910797119141</c:v>
+                  <c:v>4.753917694091797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,7 +415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.61087608337402</c:v>
+                  <c:v>2.969704866409302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,7 +459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.00753593444824</c:v>
+                  <c:v>5.88524055480957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +503,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.65451908111572</c:v>
+                  <c:v>4.228761434555054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.80986976623535</c:v>
+                  <c:v>5.21110200881958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,16 +1014,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.5411274433136</v>
+        <v>2.362808704376221</v>
       </c>
       <c r="C2">
-        <v>1.91317391395569</v>
+        <v>1.781286716461182</v>
       </c>
       <c r="D2">
-        <v>2.41217255592346</v>
+        <v>3.493072271347046</v>
       </c>
       <c r="E2">
-        <v>2.60910797119141</v>
+        <v>4.753917694091797</v>
       </c>
     </row>
   </sheetData>
@@ -1059,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.61087608337402</v>
+        <v>2.969704866409302</v>
       </c>
       <c r="C2">
-        <v>2.00753593444824</v>
+        <v>5.88524055480957</v>
       </c>
       <c r="D2">
-        <v>2.65451908111572</v>
+        <v>4.228761434555054</v>
       </c>
       <c r="E2">
-        <v>2.80986976623535</v>
+        <v>5.21110200881958</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -132,10 +132,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -144,12 +144,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.362808704376221</c:v>
+              <c:f>hget!$B$2:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.58833646774292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -176,10 +176,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -188,12 +188,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.781286716461182</c:v>
+              <c:f>hget!$C$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.733043670654297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -220,10 +220,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -232,12 +232,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.493072271347046</c:v>
+              <c:f>hget!$D$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.19827485084534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -264,10 +264,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hget!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -276,12 +276,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.753917694091797</c:v>
+              <c:f>hget!$E$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.278719186782837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,10 +398,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -410,12 +410,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.969704866409302</c:v>
+              <c:f>hset!$B$2:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.599582195281982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,10 +442,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -454,12 +454,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.88524055480957</c:v>
+              <c:f>hset!$C$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.44680118560791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,10 +486,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -498,12 +498,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.228761434555054</c:v>
+              <c:f>hset!$D$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.79518055915833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,10 +530,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>hset!$A$2:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>50000</c:v>
                 </c:pt>
@@ -542,12 +542,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.21110200881958</c:v>
+              <c:f>hset!$E$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.749584197998047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,16 +1014,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.362808704376221</v>
+        <v>2.58833646774292</v>
       </c>
       <c r="C2">
-        <v>1.781286716461182</v>
+        <v>3.733043670654297</v>
       </c>
       <c r="D2">
-        <v>3.493072271347046</v>
+        <v>31.19827485084534</v>
       </c>
       <c r="E2">
-        <v>4.753917694091797</v>
+        <v>4.278719186782837</v>
       </c>
     </row>
   </sheetData>
@@ -1059,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.969704866409302</v>
+        <v>2.599582195281982</v>
       </c>
       <c r="C2">
-        <v>5.88524055480957</v>
+        <v>3.44680118560791</v>
       </c>
       <c r="D2">
-        <v>4.228761434555054</v>
+        <v>11.79518055915833</v>
       </c>
       <c r="E2">
-        <v>5.21110200881958</v>
+        <v>4.749584197998047</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -29,7 +29,7 @@
     <t>redispy_single_bench</t>
   </si>
   <si>
-    <t>50000</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -149,7 +149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.58833646774292</c:v>
+                  <c:v>2.751522302627563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -181,7 +181,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -193,7 +193,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.733043670654297</c:v>
+                  <c:v>9.434357166290283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,7 +225,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,7 +237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31.19827485084534</c:v>
+                  <c:v>31.77772188186646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,7 +269,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,7 +281,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.278719186782837</c:v>
+                  <c:v>4.974318504333496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -403,7 +403,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,7 +415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.599582195281982</c:v>
+                  <c:v>2.882994174957275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,7 +447,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,7 +459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.44680118560791</c:v>
+                  <c:v>10.56360220909119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,7 +491,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +503,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.79518055915833</c:v>
+                  <c:v>51.24198818206787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +535,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.749584197998047</c:v>
+                  <c:v>4.943777799606323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,16 +1014,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.58833646774292</v>
+        <v>2.751522302627563</v>
       </c>
       <c r="C2">
-        <v>3.733043670654297</v>
+        <v>9.434357166290283</v>
       </c>
       <c r="D2">
-        <v>31.19827485084534</v>
+        <v>31.77772188186646</v>
       </c>
       <c r="E2">
-        <v>4.278719186782837</v>
+        <v>4.974318504333496</v>
       </c>
     </row>
   </sheetData>
@@ -1059,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.599582195281982</v>
+        <v>2.882994174957275</v>
       </c>
       <c r="C2">
-        <v>3.44680118560791</v>
+        <v>10.56360220909119</v>
       </c>
       <c r="D2">
-        <v>11.79518055915833</v>
+        <v>51.24198818206787</v>
       </c>
       <c r="E2">
-        <v>4.749584197998047</v>
+        <v>4.943777799606323</v>
       </c>
     </row>
   </sheetData>

--- a/Redis cli single benchmark.xlsx
+++ b/Redis cli single benchmark.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>credis_single_bench</t>
   </si>
@@ -29,7 +29,13 @@
     <t>redispy_single_bench</t>
   </si>
   <si>
-    <t>1</t>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>250000</t>
   </si>
 </sst>
 </file>
@@ -132,24 +138,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hget!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$B$2:$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.751522302627563</c:v>
+              <c:f>hget!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.583900451660156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.77308988571167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.42336010932922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -176,24 +194,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hget!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$C$2:$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9.434357166290283</c:v>
+              <c:f>hget!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.548072576522827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.580004930496216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.00180315971375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -220,24 +250,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hget!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$D$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>31.77772188186646</c:v>
+              <c:f>hget!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.763082265853882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.924682378768921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.36837077140808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -264,24 +306,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hget!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hget!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hget!$E$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.974318504333496</c:v>
+              <c:f>hget!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.737238168716431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.513257265090942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.37559413909912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,7 +362,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Pipeline size</a:t>
+                  <a:t>hashmap size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -398,24 +452,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hset!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$B$2:$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.882994174957275</c:v>
+              <c:f>hset!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.835486173629761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.92765212059021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.92336630821228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,24 +508,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hset!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$C$2:$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.56360220909119</c:v>
+              <c:f>hset!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.352294206619263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.53078818321228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.21712446212769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,24 +564,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hset!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$D$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>51.24198818206787</c:v>
+              <c:f>hset!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.776777505874634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.751170873641968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.9920597076416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,24 +620,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>hset!$A$2:$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>hset!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hset!$E$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.943777799606323</c:v>
+              <c:f>hset!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.267278909683228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.535431385040283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.07436013221741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,7 +676,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Pipeline size</a:t>
+                  <a:t>hashmap size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -989,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1014,16 +1116,50 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.751522302627563</v>
+        <v>2.583900451660156</v>
       </c>
       <c r="C2">
-        <v>9.434357166290283</v>
+        <v>4.548072576522827</v>
       </c>
       <c r="D2">
-        <v>31.77772188186646</v>
+        <v>3.763082265853882</v>
       </c>
       <c r="E2">
-        <v>4.974318504333496</v>
+        <v>4.737238168716431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4.77308988571167</v>
+      </c>
+      <c r="C3">
+        <v>9.580004930496216</v>
+      </c>
+      <c r="D3">
+        <v>7.924682378768921</v>
+      </c>
+      <c r="E3">
+        <v>9.513257265090942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13.42336010932922</v>
+      </c>
+      <c r="C4">
+        <v>15.00180315971375</v>
+      </c>
+      <c r="D4">
+        <v>18.36837077140808</v>
+      </c>
+      <c r="E4">
+        <v>22.37559413909912</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1059,16 +1195,50 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.882994174957275</v>
+        <v>2.835486173629761</v>
       </c>
       <c r="C2">
-        <v>10.56360220909119</v>
+        <v>2.352294206619263</v>
       </c>
       <c r="D2">
-        <v>51.24198818206787</v>
+        <v>3.776777505874634</v>
       </c>
       <c r="E2">
-        <v>4.943777799606323</v>
+        <v>4.267278909683228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4.92765212059021</v>
+      </c>
+      <c r="C3">
+        <v>4.53078818321228</v>
+      </c>
+      <c r="D3">
+        <v>6.751170873641968</v>
+      </c>
+      <c r="E3">
+        <v>9.535431385040283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13.92336630821228</v>
+      </c>
+      <c r="C4">
+        <v>11.21712446212769</v>
+      </c>
+      <c r="D4">
+        <v>18.9920597076416</v>
+      </c>
+      <c r="E4">
+        <v>25.07436013221741</v>
       </c>
     </row>
   </sheetData>
